--- a/cleaned last season/lastseasonipl_wicket-keeper.xlsx
+++ b/cleaned last season/lastseasonipl_wicket-keeper.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/cleaned last season/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/cleaned last season/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2C4105-AEDE-2743-AFED-243B745D9BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755E89FB-B61A-A248-92E5-98AA5E6701DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14800" yWindow="900" windowWidth="14440" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Player</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Dismissed</t>
   </si>
   <si>
-    <t>catches Taken</t>
-  </si>
-  <si>
     <t>Stumpings</t>
   </si>
   <si>
@@ -112,7 +109,7 @@
     <t xml:space="preserve">BR Sharath </t>
   </si>
   <si>
-    <t>-</t>
+    <t>Catches taken</t>
   </si>
 </sst>
 </file>
@@ -169,15 +166,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,7 +479,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -515,30 +509,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -562,18 +556,18 @@
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2">
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2">
         <v>4</v>
@@ -597,18 +591,18 @@
         <v>1.25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -622,8 +616,8 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
+      <c r="F4" s="2">
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -632,18 +626,18 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="3">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2">
         <v>5</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>16</v>
@@ -667,18 +661,18 @@
         <v>0.625</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="2">
         <v>5</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
         <v>14</v>
@@ -702,18 +696,18 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>12</v>
@@ -737,18 +731,18 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2">
         <v>5</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>12</v>
@@ -772,18 +766,18 @@
         <v>1.333</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>14</v>
@@ -807,18 +801,18 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2">
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>12</v>
@@ -842,18 +836,18 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -877,18 +871,18 @@
         <v>0.5</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
@@ -912,18 +906,18 @@
         <v>2.5</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="2">
         <v>2</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>13</v>
@@ -947,18 +941,18 @@
         <v>1.23</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="2">
         <v>5</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
         <v>16</v>
@@ -982,13 +976,13 @@
         <v>0.46600000000000003</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" s="2">
         <v>3</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
